--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,93 +701,93 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,103 +2067,103 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 19:29</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1235971392.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
+          <t>金禾实业10月17日获深股通增持12.98万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 18:54</t>
+          <t>10-18 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1235965262.html</t>
+          <t>/news,002597,1236042784.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业前三季度净利润同比增长86.79%</t>
+          <t>金禾实业前三季度实现营收55.28亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 17:29</t>
+          <t>10-17 21:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1235948572.html</t>
+          <t>/news,002597,1236005168.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
+          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 16:42</t>
+          <t>10-17 19:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1235938382.html</t>
+          <t>/news,002597,1235971392.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
+          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 16:20</t>
+          <t>10-17 18:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1235933104.html</t>
+          <t>/news,002597,1235965262.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
+          <t>金禾实业前三季度净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 16:15</t>
+          <t>10-17 17:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1235931737.html</t>
+          <t>/news,002597,1235948572.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：三季度净利润4.79亿元 同比增86.79%</t>
+          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 16:14</t>
+          <t>10-17 16:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1235931518.html</t>
+          <t>/news,002597,1235938382.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润同比增长86.79%</t>
+          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 16:08</t>
+          <t>10-17 16:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1235930182.html</t>
+          <t>/news,002597,1235933104.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还2293.17万元，融资余额4.19亿元（10-14）</t>
+          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 08:48</t>
+          <t>10-17 16:15</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1235651518.html</t>
+          <t>/news,002597,1235931737.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还31.47万元，居食品饮料板块第十八</t>
+          <t>金禾实业：三季度净利润4.79亿元 同比增86.79%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1235580870.html</t>
+          <t>/news,002597,1235931518.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加8320.77万元，居食品饮料板块第二</t>
+          <t>金禾实业：2022年前三季度净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 16:08</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1235576483.html</t>
+          <t>/news,002597,1235930182.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业10月14日获深股通增持47.08万股</t>
+          <t>金禾实业：融资净偿还2293.17万元，融资余额4.19亿元（10-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 08:02</t>
+          <t>10-17 08:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1235513039.html</t>
+          <t>/news,002597,1235651518.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还590.26万元，融资余额4.42亿元（10-13）</t>
+          <t>金禾实业本周融资净偿还31.47万元，居食品饮料板块第十八</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 08:45</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1235089510.html</t>
+          <t>/news,002597,1235580870.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业10月13日获深股通增持49.1万股</t>
+          <t>金禾实业本周深股通持股市值增加8320.77万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 07:55</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1235083042.html</t>
+          <t>/news,002597,1235576483.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计763.56万元（10-12）</t>
+          <t>金禾实业10月14日获深股通增持47.08万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 08:50</t>
+          <t>10-15 08:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1234653935.html</t>
+          <t>/news,002597,1235513039.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业10月12日获深股通增持30.07万股</t>
+          <t>金禾实业：融资净偿还590.26万元，融资余额4.42亿元（10-13）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 08:00</t>
+          <t>10-14 08:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1234647354.html</t>
+          <t>/news,002597,1235089510.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级</t>
+          <t>金禾实业10月13日获深股通增持49.1万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-12 17:10</t>
+          <t>10-14 07:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1234522108.html</t>
+          <t>/news,002597,1235083042.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长52.15%</t>
+          <t>金禾实业：连续4日融资净买入累计763.56万元（10-12）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 17:06</t>
+          <t>10-13 08:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1234520863.html</t>
+          <t>/news,002597,1234653935.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>金禾实业10月12日获深股通增持30.07万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 14:07</t>
+          <t>10-13 08:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1234439620.html</t>
+          <t>/news,002597,1234647354.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长49.01%</t>
+          <t>东莞证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 13:12</t>
+          <t>10-12 17:10</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1234396153.html</t>
+          <t>/news,002597,1234522108.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计676.1万元（10-11）</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长52.15%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 08:53</t>
+          <t>10-12 17:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1234219480.html</t>
+          <t>/news,002597,1234520863.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业10月11日获深股通增持63.66万股</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 07:56</t>
+          <t>10-12 14:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1234213765.html</t>
+          <t>/news,002597,1234439620.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长49.01%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 19:31</t>
+          <t>10-12 13:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1234122843.html</t>
+          <t>/news,002597,1234396153.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>市值刚过200亿 代糖龙头金禾实业拟99亿投建新项目 钱从哪里来？</t>
+          <t>金禾实业：连续3日融资净买入累计676.1万元（10-11）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 17:10</t>
+          <t>10-12 08:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1234099936.html</t>
+          <t>/news,002597,1234219480.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国金证券维持金禾实业买入评级 预计2022年净利润同比增长45.27%</t>
+          <t>金禾实业10月11日获深股通增持63.66万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 11:27</t>
+          <t>10-12 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1233973152.html</t>
+          <t>/news,002597,1234213765.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中金公司维持金禾实业跑赢行业评级 目标价54元</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 09:02</t>
+          <t>10-11 19:31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1233847116.html</t>
+          <t>/news,002597,1234122843.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>招商证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长47.31%</t>
+          <t>市值刚过200亿 代糖龙头金禾实业拟99亿投建新项目 钱从哪里来？</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 09:01</t>
+          <t>10-11 17:10</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1233846965.html</t>
+          <t>/news,002597,1234099936.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,83 +701,83 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,103 +1107,103 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,125 +1875,125 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 19:29</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1235971392.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 18:54</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1235965262.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业前三季度净利润同比增长86.79%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,83 +2333,83 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 17:29</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1235948572.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 16:42</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1235938382.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 16:20</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1235933104.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 16:15</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1235931737.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：三季度净利润4.79亿元 同比增86.79%</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 16:14</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1235931518.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润同比增长86.79%</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 16:08</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1235930182.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还2293.17万元，融资余额4.19亿元（10-14）</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 08:48</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1235651518.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还31.47万元，居食品饮料板块第十八</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1235580870.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加8320.77万元，居食品饮料板块第二</t>
+          <t>金禾实业10月17日获深股通增持12.98万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-18 07:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1235576483.html</t>
+          <t>/news,002597,1236042784.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业10月14日获深股通增持47.08万股</t>
+          <t>金禾实业前三季度实现营收55.28亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 08:02</t>
+          <t>10-17 21:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1235513039.html</t>
+          <t>/news,002597,1236005168.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还590.26万元，融资余额4.42亿元（10-13）</t>
+          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 08:45</t>
+          <t>10-17 19:29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1235089510.html</t>
+          <t>/news,002597,1235971392.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业10月13日获深股通增持49.1万股</t>
+          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:55</t>
+          <t>10-17 18:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1235083042.html</t>
+          <t>/news,002597,1235965262.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计763.56万元（10-12）</t>
+          <t>金禾实业前三季度净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 08:50</t>
+          <t>10-17 17:29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1234653935.html</t>
+          <t>/news,002597,1235948572.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业10月12日获深股通增持30.07万股</t>
+          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 08:00</t>
+          <t>10-17 16:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1234647354.html</t>
+          <t>/news,002597,1235938382.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级</t>
+          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 17:10</t>
+          <t>10-17 16:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1234522108.html</t>
+          <t>/news,002597,1235933104.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长52.15%</t>
+          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 17:06</t>
+          <t>10-17 16:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1234520863.html</t>
+          <t>/news,002597,1235931737.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>金禾实业：三季度净利润4.79亿元 同比增86.79%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 14:07</t>
+          <t>10-17 16:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1234439620.html</t>
+          <t>/news,002597,1235931518.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长49.01%</t>
+          <t>金禾实业：2022年前三季度净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 13:12</t>
+          <t>10-17 16:08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1234396153.html</t>
+          <t>/news,002597,1235930182.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计676.1万元（10-11）</t>
+          <t>金禾实业：融资净偿还2293.17万元，融资余额4.19亿元（10-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 08:53</t>
+          <t>10-17 08:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1234219480.html</t>
+          <t>/news,002597,1235651518.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业10月11日获深股通增持63.66万股</t>
+          <t>金禾实业本周融资净偿还31.47万元，居食品饮料板块第十八</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:56</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1234213765.html</t>
+          <t>/news,002597,1235580870.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周深股通持股市值增加8320.77万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 19:31</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1234122843.html</t>
+          <t>/news,002597,1235576483.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>市值刚过200亿 代糖龙头金禾实业拟99亿投建新项目 钱从哪里来？</t>
+          <t>金禾实业10月14日获深股通增持47.08万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 17:10</t>
+          <t>10-15 08:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1234099936.html</t>
+          <t>/news,002597,1235513039.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>960</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>2472</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,71 +1107,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,71 +1747,71 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,61 +1875,61 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,61 +1939,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,83 +2493,83 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,115 +2621,115 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 19:29</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1235971392.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 18:54</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1235965262.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业前三季度净利润同比增长86.79%</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 17:29</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1235948572.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 16:42</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1235938382.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
+          <t>金禾实业10月17日获深股通增持12.98万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 16:20</t>
+          <t>10-18 07:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1235933104.html</t>
+          <t>/news,002597,1236042784.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
+          <t>金禾实业前三季度实现营收55.28亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 16:15</t>
+          <t>10-17 21:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1235931737.html</t>
+          <t>/news,002597,1236005168.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：三季度净利润4.79亿元 同比增86.79%</t>
+          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 16:14</t>
+          <t>10-17 19:29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1235931518.html</t>
+          <t>/news,002597,1235971392.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润同比增长86.79%</t>
+          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 16:08</t>
+          <t>10-17 18:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1235930182.html</t>
+          <t>/news,002597,1235965262.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还2293.17万元，融资余额4.19亿元（10-14）</t>
+          <t>金禾实业前三季度净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 08:48</t>
+          <t>10-17 17:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1235651518.html</t>
+          <t>/news,002597,1235948572.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还31.47万元，居食品饮料板块第十八</t>
+          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1235580870.html</t>
+          <t>/news,002597,1235938382.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加8320.77万元，居食品饮料板块第二</t>
+          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 16:20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1235576483.html</t>
+          <t>/news,002597,1235933104.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业10月14日获深股通增持47.08万股</t>
+          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-15 08:02</t>
+          <t>10-17 16:15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1235513039.html</t>
+          <t>/news,002597,1235931737.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,103 +531,103 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,135 +1299,135 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,61 +1939,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,71 +2483,71 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,83 +2557,83 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
+          <t>金禾实业10月17日获深股通增持12.98万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 19:29</t>
+          <t>10-18 07:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1235971392.html</t>
+          <t>/news,002597,1236042784.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
+          <t>金禾实业前三季度实现营收55.28亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 18:54</t>
+          <t>10-17 21:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1235965262.html</t>
+          <t>/news,002597,1236005168.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业前三季度净利润同比增长86.79%</t>
+          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 17:29</t>
+          <t>10-17 19:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1235948572.html</t>
+          <t>/news,002597,1235971392.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
+          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 16:42</t>
+          <t>10-17 18:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1235938382.html</t>
+          <t>/news,002597,1235965262.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：2022年前三季度净利润约13.33亿元</t>
+          <t>金禾实业前三季度净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 16:20</t>
+          <t>10-17 17:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1235933104.html</t>
+          <t>/news,002597,1235948572.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业股东户数下降2.11%，户均持股77.91万元</t>
+          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 16:15</t>
+          <t>10-17 16:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1235931737.html</t>
+          <t>/news,002597,1235938382.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>895</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
@@ -494,12 +494,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,103 +595,103 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>898</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,135 +1363,135 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,61 +2003,61 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,83 +2621,83 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
+          <t>金禾实业10月17日获深股通增持12.98万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 19:29</t>
+          <t>10-18 07:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1235971392.html</t>
+          <t>/news,002597,1236042784.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
+          <t>金禾实业前三季度实现营收55.28亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 18:54</t>
+          <t>10-17 21:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1235965262.html</t>
+          <t>/news,002597,1236005168.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业前三季度净利润同比增长86.79%</t>
+          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 17:29</t>
+          <t>10-17 19:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1235948572.html</t>
+          <t>/news,002597,1235971392.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：年产8000吨三氯蔗糖满产 前三季度归母净利润同比增长86.79%</t>
+          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 16:42</t>
+          <t>10-17 18:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1235938382.html</t>
+          <t>/news,002597,1235965262.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,103 +659,103 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2878</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>912</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>846</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,135 +1427,135 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,61 +2451,61 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,71 +2611,71 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,83 +2685,83 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>【图解季报】金禾实业：2022年前三季度归母净利润同比大增86.8%，约为13.3亿元</t>
+          <t>金禾实业10月17日获深股通增持12.98万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 19:29</t>
+          <t>10-18 07:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1235971392.html</t>
+          <t>/news,002597,1236042784.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>受益主要产品量价齐升 金禾实业前三季度净利增长超8成</t>
+          <t>金禾实业前三季度实现营收55.28亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 18:54</t>
+          <t>10-17 21:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1235965262.html</t>
+          <t>/news,002597,1236005168.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,103 +723,103 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>2621</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,135 +1491,135 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,61 +2131,61 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,61 +2451,61 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,61 +2515,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,71 +2675,71 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,83 +2749,83 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 15:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236328633.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 13:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236243064.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业10月17日获深股通增持12.98万股</t>
+          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 07:53</t>
+          <t>10-18 09:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236042784.html</t>
+          <t>/news,002597,1236051167.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业前三季度实现营收55.28亿元</t>
+          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 21:54</t>
+          <t>10-18 08:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236005168.html</t>
+          <t>/news,002597,1236049057.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,93 +861,93 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>924</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>854</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,93 +1533,93 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,71 +1715,71 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,71 +2707,71 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国海证券维持金禾实业买入评级 预计2022年净利润同比增长53.77%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 15:58</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236328633.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 13:30</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236243064.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华泰证券维持金禾实业增持评级 目标价51.6元</t>
+          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 09:05</t>
+          <t>10-18 16:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236051167.html</t>
+          <t>/news,002597,1236339375.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入583.33万元，融资余额4.25亿元（10-17）</t>
+          <t>国海证券给予金禾实业买入评级</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 08:54</t>
+          <t>10-18 16:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236049057.html</t>
+          <t>/news,002597,1236331611.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,103 +915,103 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>926</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,135 +1683,135 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,61 +2643,61 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,61 +2707,61 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,71 +2867,71 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 06:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236434079.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-18 18:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236355770.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国信证券维持金禾实业买入评级 预计2022年净利润同比增长52.49%</t>
+          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 16:58</t>
+          <t>10-18 17:17</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236339375.html</t>
+          <t>/news,002597,1236342731.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国海证券给予金禾实业买入评级</t>
+          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 16:14</t>
+          <t>10-18 17:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236331611.html</t>
+          <t>/news,002597,1236340300.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>2688</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>932</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,44 +2525,44 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,71 +2899,71 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东亚前海证券维持金禾实业推荐评级 预计2022年净利润同比增长52.5%</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 06:56</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236434079.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国盛证券维持金禾实业买入评级 预计2022年净利润同比增长50.88%</t>
+          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 18:41</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236355770.html</t>
+          <t>/news,002597,1236450094.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国信证券给予金禾实业买入评级 1-9月业绩同比大幅增长 定远二期打开成长空间</t>
+          <t>金禾实业10月18日被深股通减持69.38万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 17:17</t>
+          <t>10-19 07:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236342731.html</t>
+          <t>/news,002597,1236440901.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国泰君安维持金禾实业增持评级 目标价62.54元</t>
+          <t>东亚前海证券给予金禾实业推荐评级</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 17:03</t>
+          <t>10-19 07:18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236340300.html</t>
+          <t>/news,002597,1236437659.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 18:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1248056116.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,61 +819,61 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,71 +1075,71 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>935</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,71 +1875,71 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,61 +2451,61 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-19 17:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236760374.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>精细化工行业供应链韧性持续增强 深市公司首批三季报迎“开门红”</t>
+          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-19 17:23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236450094.html</t>
+          <t>/news,002597,1236759100.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业10月18日被深股通减持69.38万股</t>
+          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 07:56</t>
+          <t>10-19 09:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236440901.html</t>
+          <t>/news,002597,1236506414.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东亚前海证券给予金禾实业推荐评级</t>
+          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 07:18</t>
+          <t>10-19 09:11</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236437659.html</t>
+          <t>/news,002597,1236451065.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 18:46</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1248056116.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 18:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1248056116.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,61 +819,61 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,61 +947,61 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>2704</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,71 +2131,71 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东莞证券给予金禾实业推荐评级 前三季度业绩接近预告上限 拟投建一体化基地助力中长期成长</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 17:27</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1236760374.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东莞证券维持金禾实业推荐评级 预计2022年净利润同比增长49.77%</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 17:23</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1236759100.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>长江证券维持金禾实业买入评级 预计2022年净利润同比增长58.19%</t>
+          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 09:55</t>
+          <t>10-20 08:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236506414.html</t>
+          <t>/news,002597,1236895502.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1683.67万元，融资余额4.42亿元（10-18）</t>
+          <t>金禾实业10月19日被深股通减持22.92万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 09:11</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236451065.html</t>
+          <t>/news,002597,1236888727.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 18:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1248056116.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-17 18:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248056116.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,61 +947,61 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,103 +1331,103 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>952</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>673</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,135 +2099,135 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还303.89万元，融资余额4.39亿元（10-19）</t>
+          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 08:46</t>
+          <t>10-20 13:19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1236895502.html</t>
+          <t>/news,002597,1237103546.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业10月19日被深股通减持22.92万股</t>
+          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-20 13:16</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1236888727.html</t>
+          <t>/news,002597,1237098922.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 18:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1248056116.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-17 18:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248056116.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,103 +1395,103 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>1422</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>954</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>871</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,135 +2163,135 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,61 +2803,61 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天风证券给予金禾实业买入评级 三季度业绩历史新高 定远百亿投资落地</t>
+          <t>金禾实业10月20日被深股通减持2.09万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 13:19</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1237103546.html</t>
+          <t>/news,002597,1237346983.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天风证券维持金禾实业买入评级 预计2022年净利润同比增长51.6%</t>
+          <t>金禾实业：首次回购约94万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 13:16</t>
+          <t>10-20 18:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1237098922.html</t>
+          <t>/news,002597,1237244329.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 18:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1248056116.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-17 18:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248056116.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,61 +1139,61 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,103 +1459,103 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3338</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>3345</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>956</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>872</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,135 +2227,135 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,61 +2867,61 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业10月20日被深股通减持2.09万股</t>
+          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 13:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1237346983.html</t>
+          <t>/news,002597,1237608910.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：首次回购约94万股</t>
+          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 18:52</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1237244329.html</t>
+          <t>/news,002597,1237356515.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 18:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1248056116.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-17 18:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248056116.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,61 +1139,61 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,103 +1523,103 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3345</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>956</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>872</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,135 +2291,135 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>金禾实业10月28日获深股通增持91.5万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1240600700.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>10-28 09:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1240060579.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业10月27日获深股通增持104.34万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>10-28 07:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1240048526.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>10-27 12:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1239697067.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>10-27 08:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1239506093.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业10月26日获深股通增持116.08万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>10-27 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1239496983.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>10-26 14:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1239285036.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>10-26 09:20</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1238992412.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 09:11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1238986179.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>10-26 08:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1238978048.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业10月25日获深股通增持18.02万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1238970019.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>10-25 16:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1238809040.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-25 08:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1238457241.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业10月24日被深股通减持26.16万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1238447763.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-24 09:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1237925775.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1237864628.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海通证券维持金禾实业优于大市评级 目标价46.05~55.26元</t>
+          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 13:57</t>
+          <t>10-23 14:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1237608910.html</t>
+          <t>/news,002597,1237860674.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.2万元，融资余额4.42亿元（10-20）</t>
+          <t>金禾实业10月21日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-22 07:46</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1237356515.html</t>
+          <t>/news,002597,1237796382.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,61 +755,61 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业持续实施股份回购  股权激励促进公司发展值得期待</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 18:46</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1248056116.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3352</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,125 +1725,125 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业10月28日获深股通增持91.5万股</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1240600700.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还257.66万元，融资余额4.47亿元（10-27）</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 09:06</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1240060579.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业10月27日获深股通增持104.34万股</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 07:53</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1240048526.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 12:27</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1239697067.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入70.42万元，融资余额4.5亿元（10-26）</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 08:52</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1239506093.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业10月26日获深股通增持116.08万股</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 07:48</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1239496983.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品正在开拓市场</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 14:32</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1239285036.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 09:20</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1238992412.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业：阿洛酮糖产品已通过资质审核 正在积极开拓市场</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 09:11</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1238986179.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入96.92万元，融资余额4.49亿元（10-25）</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 08:49</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1238978048.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业10月25日获深股通增持18.02万股</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1238970019.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>兴业证券维持金禾实业买入评级 预计2022年净利润同比增长57.68%</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 16:28</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1238809040.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还42.89万元，融资余额4.48亿元（10-24）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 08:48</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1238457241.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业10月24日被深股通减持26.16万股</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:48</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1238447763.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入577.56万元，融资余额4.48亿元（10-21）</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 09:04</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1237925775.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入2330.31万元，居食品饮料板块第五</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1237864628.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持84.94万股 最新持股量1348.5万股</t>
+          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 14:07</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1237860674.html</t>
+          <t>/news,002597,1240707047.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业10月21日被深股通减持3.54万股</t>
+          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-22 07:46</t>
+          <t>10-29 17:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1237796382.html</t>
+          <t>/news,002597,1240640478.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,103 +2163,103 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>896</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,86 +2931,86 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业10月31日获深股通增持36.15万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241297334.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加1.04亿元，居食品饮料板块第一</t>
+          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1240707047.html</t>
+          <t>/news,002597,1240796065.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>正常生产却排污数据突然消失 金禾实业环境违法悬案终落幕！公司回应“整改工作已完成”｜环保利剑</t>
+          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 17:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1240640478.html</t>
+          <t>/news,002597,1240713077.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,61 +1939,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,71 +2195,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>976</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>897</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业10月31日获深股通增持36.15万股</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 07:53</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1241297334.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还38.4万元，融资余额4.47亿元（10-28）</t>
+          <t>金禾实业：累计回购约178万股 占比0.32%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 17:20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1240796065.html</t>
+          <t>/news,002597,1241658196.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还133.22万元，居食品饮料板块第十六</t>
+          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1240713077.html</t>
+          <t>/news,002597,1241304909.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,12 +605,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,61 +1939,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,61 +2003,61 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,103 +2323,103 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>976</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约178万股 占比0.32%</t>
+          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 17:20</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1241658196.html</t>
+          <t>/news,002597,1241808647.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计819.78万元（10-31）</t>
+          <t>金禾实业11月01日被深股通减持29.26万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 07:58</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1241304909.html</t>
+          <t>/news,002597,1241802539.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
+          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:43</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1256764700.html</t>
+          <t>/news,002597,1257406279.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业12月07日获深股通增持25.57万股</t>
+          <t>金禾实业12月08日获深股通增持45.63万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1256757577.html</t>
+          <t>/news,002597,1257394819.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,12 +669,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,61 +2003,61 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,103 +2387,103 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 07:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242818064.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业11月03日被深股通减持33.34万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 07:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242816370.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净偿还累计1304.43万元（11-01）</t>
+          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1241808647.html</t>
+          <t>/news,002597,1242334025.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业11月01日被深股通减持29.26万股</t>
+          <t>金禾实业11月02日被深股通减持48.1万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 07:58</t>
+          <t>11-03 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1241802539.html</t>
+          <t>/news,002597,1242325766.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
+          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-12 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1257406279.html</t>
+          <t>/news,002597,1258214180.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业12月08日获深股通增持45.63万股</t>
+          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:56</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1257394819.html</t>
+          <t>/news,002597,1258088666.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
+          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:43</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1256764700.html</t>
+          <t>/news,002597,1258081092.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业12月07日获深股通增持25.57万股</t>
+          <t>金禾实业12月09日被深股通减持34.21万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-10 08:02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1256757577.html</t>
+          <t>/news,002597,1257966936.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1257406279.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业12月08日获深股通增持45.63万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-09 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1257394819.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 07:53</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1242818064.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业11月03日被深股通减持33.34万股</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 07:46</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1242816370.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入367.21万元，融资余额4.4亿元（11-02）</t>
+          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1242334025.html</t>
+          <t>/news,002597,1242819796.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业11月02日被深股通减持48.1万股</t>
+          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 07:52</t>
+          <t>11-04 08:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1242325766.html</t>
+          <t>/news,002597,1242819569.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
+          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:53</t>
+          <t>12-13 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1258214180.html</t>
+          <t>/news,002597,1258769416.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
+          <t>金禾实业12月12日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1258088666.html</t>
+          <t>/news,002597,1258762380.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
+          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-12 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1258081092.html</t>
+          <t>/news,002597,1258214180.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业12月09日被深股通减持34.21万股</t>
+          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 08:02</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1257966936.html</t>
+          <t>/news,002597,1258088666.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
+          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1257406279.html</t>
+          <t>/news,002597,1258081092.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业12月08日获深股通增持45.63万股</t>
+          <t>金禾实业12月09日被深股通减持34.21万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:56</t>
+          <t>12-10 08:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1257394819.html</t>
+          <t>/news,002597,1257966936.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
+          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:43</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1256764700.html</t>
+          <t>/news,002597,1257406279.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业12月07日获深股通增持25.57万股</t>
+          <t>金禾实业12月08日获深股通增持45.63万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1256757577.html</t>
+          <t>/news,002597,1257394819.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,103 +2579,103 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>978</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>900</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故 事故原因正在调查中</t>
+          <t>金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1242819796.html</t>
+          <t>/news,002597,1242823316.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：年产5000吨三氯蔗糖溶剂回收楼发生火灾事故 造成1名维修巡检人员死亡</t>
+          <t>早间公告：金禾实业发生安全事故</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 08:03</t>
+          <t>11-04 08:16</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1242819569.html</t>
+          <t>/news,002597,1242821393.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
+          <t>金禾实业：融资净买入592.23万元，融资余额4.42亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:52</t>
+          <t>12-14 08:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1258769416.html</t>
+          <t>/news,002597,1259356457.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业12月12日被深股通减持8.91万股</t>
+          <t>金禾实业12月13日获深股通增持29.39万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:57</t>
+          <t>12-14 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1258762380.html</t>
+          <t>/news,002597,1259348272.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
+          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 08:53</t>
+          <t>12-13 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1258214180.html</t>
+          <t>/news,002597,1258769416.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
+          <t>金禾实业12月12日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-13 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1258088666.html</t>
+          <t>/news,002597,1258762380.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
+          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-12 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1258081092.html</t>
+          <t>/news,002597,1258214180.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业12月09日被深股通减持34.21万股</t>
+          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 08:02</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1257966936.html</t>
+          <t>/news,002597,1258088666.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
+          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1257406279.html</t>
+          <t>/news,002597,1258081092.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业12月08日获深股通增持45.63万股</t>
+          <t>金禾实业12月09日被深股通减持34.21万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:56</t>
+          <t>12-10 08:02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1257394819.html</t>
+          <t>/news,002597,1257966936.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
+          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:43</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1256764700.html</t>
+          <t>/news,002597,1257406279.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业12月07日获深股通增持25.57万股</t>
+          <t>金禾实业12月08日获深股通增持45.63万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-09 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1256757577.html</t>
+          <t>/news,002597,1257394819.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,103 +2643,103 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业11月04日获深股通增持246.61万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-05 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1243319534.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-04 22:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1243292199.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-04 14:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243177122.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-04 13:12</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243059904.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-04 11:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243023938.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-04 10:23</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1242943360.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业：公司发生安全事故</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-04 09:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1242830137.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故</t>
+          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 08:30</t>
+          <t>11-04 09:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1242823316.html</t>
+          <t>/news,002597,1242828806.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>早间公告：金禾实业发生安全事故</t>
+          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 08:16</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1242821393.html</t>
+          <t>/news,002597,1242826282.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入592.23万元，融资余额4.42亿元（12-13）</t>
+          <t>金禾实业12月19日获深股通增持3.17万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 08:59</t>
+          <t>12-20 07:38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1259356457.html</t>
+          <t>/news,002597,1261722347.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业12月13日获深股通增持29.39万股</t>
+          <t>金禾实业：融资净偿还307.34万元，融资余额4.44亿元（12-16）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:58</t>
+          <t>12-19 08:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1259348272.html</t>
+          <t>/news,002597,1261207125.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
+          <t>金禾实业本周融资净买入1632.79万元，居食品饮料板块第十三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 08:52</t>
+          <t>12-18 15:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1258769416.html</t>
+          <t>/news,002597,1261089840.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业12月12日被深股通减持8.91万股</t>
+          <t>金禾实业本周被深股通减持29.06万股 最新持股量1723.37万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:57</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1258762380.html</t>
+          <t>/news,002597,1261080637.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
+          <t>金禾实业12月16日获深股通增持35.42万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 08:53</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1258214180.html</t>
+          <t>/news,002597,1260974747.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
+          <t>金禾实业：融资净买入664.35万元，融资余额4.47亿元（12-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-16 08:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1258088666.html</t>
+          <t>/news,002597,1260486977.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
+          <t>金禾实业12月15日被深股通减持61.25万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-16 07:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1258081092.html</t>
+          <t>/news,002597,1260476714.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业12月09日被深股通减持34.21万股</t>
+          <t>金禾实业：融资净偿还166.32万元，融资余额4.41亿元（12-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 08:02</t>
+          <t>12-15 08:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1257966936.html</t>
+          <t>/news,002597,1259942190.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
+          <t>金禾实业12月14日被深股通减持23.7万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-15 07:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1257406279.html</t>
+          <t>/news,002597,1259933015.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业12月08日获深股通增持45.63万股</t>
+          <t>金禾实业：融资净买入592.23万元，融资余额4.42亿元（12-13）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:56</t>
+          <t>12-14 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1257394819.html</t>
+          <t>/news,002597,1259356457.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
+          <t>金禾实业12月13日获深股通增持29.39万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:43</t>
+          <t>12-14 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1256764700.html</t>
+          <t>/news,002597,1259348272.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业12月07日获深股通增持25.57万股</t>
+          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-13 08:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1256757577.html</t>
+          <t>/news,002597,1258769416.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业12月12日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-13 07:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1258762380.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-12 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1258214180.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1258088666.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1258081092.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业12月09日被深股通减持34.21万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-10 08:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1257966936.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1257406279.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月08日获深股通增持45.63万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-09 07:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1257394819.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,93 +2579,93 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业11月04日获深股通增持246.61万股</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:56</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1243319534.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业工厂失火致一人死亡 曾多次发生安全事故</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 22:38</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1243292199.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>环保问题整改刚结束 金禾实业再发安全事故造成一人死亡</t>
+          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 14:43</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1243177122.html</t>
+          <t>/news,002597,1244438542.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业发生安全事故 事故线已停产 公司已停止三氯蔗糖报价</t>
+          <t>金禾实业11月08日被深股通减持134.89万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 13:12</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1243059904.html</t>
+          <t>/news,002597,1244425337.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业回应回收楼起火：预计不会对生产经营造成重大不利影响</t>
+          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 11:53</t>
+          <t>11-08 08:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1243023938.html</t>
+          <t>/news,002597,1243982611.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业昨夜发生安全事故 董秘：目前3000吨三氯蔗糖及其他装置运转正常</t>
+          <t>金禾实业11月07日被深股通减持26.53万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 10:23</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1242943360.html</t>
+          <t>/news,002597,1243974602.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：公司发生安全事故</t>
+          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 09:06</t>
+          <t>11-07 08:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1242830137.html</t>
+          <t>/news,002597,1243512702.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>突发！这家上市公司发生火灾事故，1名维修巡检人员死亡</t>
+          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 09:00</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1242828806.html</t>
+          <t>/news,002597,1243410339.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还732.07万元，融资余额4.33亿元（11-03）</t>
+          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1242826282.html</t>
+          <t>/news,002597,1243405134.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002597.xlsx
+++ b/news_ann/news/tmp/002597.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金禾实业12月19日获深股通增持3.17万股</t>
+          <t>金禾实业：连续4日融资净买入累计856.66万元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:38</t>
+          <t>12-23 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002597,1261722347.html</t>
+          <t>/news,002597,1263201265.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还307.34万元，融资余额4.44亿元（12-16）</t>
+          <t>金禾实业12月22日被深股通减持76.15万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-19 08:51</t>
+          <t>12-23 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002597,1261207125.html</t>
+          <t>/news,002597,1263190609.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1632.79万元，居食品饮料板块第十三</t>
+          <t>金禾实业：连续3日融资净买入累计409.92万元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 15:24</t>
+          <t>12-22 08:39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002597,1261089840.html</t>
+          <t>/news,002597,1262677085.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金禾实业本周被深股通减持29.06万股 最新持股量1723.37万股</t>
+          <t>金禾实业12月21日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 14:05</t>
+          <t>12-22 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002597,1261080637.html</t>
+          <t>/news,002597,1262670837.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金禾实业12月16日获深股通增持35.42万股</t>
+          <t>金禾实业：融资净买入84.08万元，融资余额4.46亿元（12-20）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-17 07:43</t>
+          <t>12-21 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002597,1260974747.html</t>
+          <t>/news,002597,1262204949.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入664.35万元，融资余额4.47亿元（12-15）</t>
+          <t>金禾实业12月20日被深股通减持36.71万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-16 08:55</t>
+          <t>12-21 07:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002597,1260486977.html</t>
+          <t>/news,002597,1262194873.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金禾实业12月15日被深股通减持61.25万股</t>
+          <t>金禾实业：融资净买入141.12万元，融资余额4.46亿元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 07:48</t>
+          <t>12-20 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002597,1260476714.html</t>
+          <t>/news,002597,1261732636.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还166.32万元，融资余额4.41亿元（12-14）</t>
+          <t>金禾实业12月19日获深股通增持3.17万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-15 08:50</t>
+          <t>12-20 07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002597,1259942190.html</t>
+          <t>/news,002597,1261722347.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金禾实业12月14日被深股通减持23.7万股</t>
+          <t>金禾实业：融资净偿还307.34万元，融资余额4.44亿元（12-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 07:49</t>
+          <t>12-19 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002597,1259933015.html</t>
+          <t>/news,002597,1261207125.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入592.23万元，融资余额4.42亿元（12-13）</t>
+          <t>金禾实业本周融资净买入1632.79万元，居食品饮料板块第十三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-14 08:59</t>
+          <t>12-18 15:24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002597,1259356457.html</t>
+          <t>/news,002597,1261089840.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金禾实业12月13日获深股通增持29.39万股</t>
+          <t>金禾实业本周被深股通减持29.06万股 最新持股量1723.37万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 07:58</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002597,1259348272.html</t>
+          <t>/news,002597,1261080637.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
+          <t>金禾实业12月16日获深股通增持35.42万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-13 08:52</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002597,1258769416.html</t>
+          <t>/news,002597,1260974747.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金禾实业12月12日被深股通减持8.91万股</t>
+          <t>金禾实业：融资净买入664.35万元，融资余额4.47亿元（12-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-13 07:57</t>
+          <t>12-16 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002597,1258762380.html</t>
+          <t>/news,002597,1260486977.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
+          <t>金禾实业12月15日被深股通减持61.25万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-12 08:53</t>
+          <t>12-16 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002597,1258214180.html</t>
+          <t>/news,002597,1260476714.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
+          <t>金禾实业：融资净偿还166.32万元，融资余额4.41亿元（12-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-11 15:06</t>
+          <t>12-15 08:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002597,1258088666.html</t>
+          <t>/news,002597,1259942190.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
+          <t>金禾实业12月14日被深股通减持23.7万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-15 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002597,1258081092.html</t>
+          <t>/news,002597,1259933015.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金禾实业12月09日被深股通减持34.21万股</t>
+          <t>金禾实业：融资净买入592.23万元，融资余额4.42亿元（12-13）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-10 08:02</t>
+          <t>12-14 08:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002597,1257966936.html</t>
+          <t>/news,002597,1259356457.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
+          <t>金禾实业12月13日获深股通增持29.39万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-14 07:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002597,1257406279.html</t>
+          <t>/news,002597,1259348272.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金禾实业12月08日获深股通增持45.63万股</t>
+          <t>金禾实业：融资净买入542.53万元，融资余额4.36亿元（12-12）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-09 07:56</t>
+          <t>12-13 08:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002597,1257394819.html</t>
+          <t>/news,002597,1258769416.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
+          <t>金禾实业12月12日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-08 08:43</t>
+          <t>12-13 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002597,1256764700.html</t>
+          <t>/news,002597,1258762380.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金禾实业12月07日获深股通增持25.57万股</t>
+          <t>金禾实业：融资净偿还884.08万元，融资余额4.31亿元（12-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-08 07:57</t>
+          <t>12-12 08:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002597,1256757577.html</t>
+          <t>/news,002597,1258214180.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金禾实业子公司获得高新技术企业证书</t>
+          <t>金禾实业本周融资净偿还410.27万元，居食品饮料板块第十九</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-07 10:27</t>
+          <t>12-11 15:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002597,1256226863.html</t>
+          <t>/news,002597,1258088666.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
+          <t>金禾实业本周获深股通增持14.19万股 最新持股量1752.43万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-07 08:52</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002597,1256099534.html</t>
+          <t>/news,002597,1258081092.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金禾实业12月06日获深股通增持35.67万股</t>
+          <t>金禾实业12月09日被深股通减持34.21万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-10 08:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002597,1256091233.html</t>
+          <t>/news,002597,1257966936.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
+          <t>金禾实业：融资净买入151.5万元，融资余额4.4亿元（12-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002597,1255456911.html</t>
+          <t>/news,002597,1257406279.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金禾实业12月05日被深股通减持58.47万股</t>
+          <t>金禾实业12月08日获深股通增持45.63万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-06 07:56</t>
+          <t>12-09 07:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002597,1255449372.html</t>
+          <t>/news,002597,1257394819.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
+          <t>金禾实业：融资净买入267.79万元，融资余额4.38亿元（12-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-05 08:51</t>
+          <t>12-08 08:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002597,1254802719.html</t>
+          <t>/news,002597,1256764700.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,61 +1331,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
+          <t>金禾实业12月07日获深股通增持25.57万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-08 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002597,1254649952.html</t>
+          <t>/news,002597,1256757577.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>976</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
+          <t>金禾实业子公司获得高新技术企业证书</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-07 10:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002597,1254643487.html</t>
+          <t>/news,002597,1256226863.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金禾实业12月02日被深股通减持18.33万股</t>
+          <t>金禾实业：融资净偿还534.4万元，融资余额4.36亿元（12-06）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-03 07:55</t>
+          <t>12-07 08:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002597,1254512915.html</t>
+          <t>/news,002597,1256099534.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
+          <t>金禾实业12月06日获深股通增持35.67万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002597,1253919528.html</t>
+          <t>/news,002597,1256091233.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金禾实业12月01日被深股通减持22.75万股</t>
+          <t>金禾实业：融资净偿还295.17万元，融资余额4.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 07:46</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002597,1253912443.html</t>
+          <t>/news,002597,1255456911.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金禾实业：累计回购约188万股 占比0.34%</t>
+          <t>金禾实业12月05日被深股通减持58.47万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 17:51</t>
+          <t>12-06 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002597,1253754523.html</t>
+          <t>/news,002597,1255449372.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
+          <t>金禾实业：融资净买入64.27万元，融资余额4.44亿元（12-02）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 08:45</t>
+          <t>12-05 08:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002597,1253309468.html</t>
+          <t>/news,002597,1254802719.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>金禾实业11月30日被深股通减持42.21万股</t>
+          <t>金禾实业本周融资净偿还1007.33万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 07:59</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002597,1253303344.html</t>
+          <t>/news,002597,1254649952.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
+          <t>金禾实业本周深股通持股市值减少1609.39万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 17:01</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002597,1253148304.html</t>
+          <t>/news,002597,1254643487.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
+          <t>金禾实业12月02日被深股通减持18.33万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-30 16:42</t>
+          <t>12-03 07:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002597,1253142510.html</t>
+          <t>/news,002597,1254512915.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
+          <t>金禾实业：融资净偿还482.49万元，融资余额4.43亿元（12-01）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002597,1252785494.html</t>
+          <t>/news,002597,1253919528.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金禾实业11月29日获深股通增持27.64万股</t>
+          <t>金禾实业12月01日被深股通减持22.75万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-02 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002597,1252779415.html</t>
+          <t>/news,002597,1253912443.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
+          <t>金禾实业：累计回购约188万股 占比0.34%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-29 08:41</t>
+          <t>12-01 17:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002597,1252220911.html</t>
+          <t>/news,002597,1253754523.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>金禾实业11月28日获深股通增持10.22万股</t>
+          <t>金禾实业：融资净买入327.82万元，融资余额4.48亿元（11-30）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-29 07:45</t>
+          <t>12-01 08:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002597,1252211984.html</t>
+          <t>/news,002597,1253309468.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
+          <t>金禾实业11月30日被深股通减持42.21万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-01 07:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002597,1251733687.html</t>
+          <t>/news,002597,1253303344.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,61 +1811,61 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
+          <t>金禾实业：公司暂无赤藓糖醇产品的生产</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 15:06</t>
+          <t>11-30 17:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002597,1251590162.html</t>
+          <t>/news,002597,1253148304.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
+          <t>金禾实业：子公司金轩科技拥有年产8万吨氯化亚砜的产能规模</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-27 14:08</t>
+          <t>11-30 16:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002597,1251585069.html</t>
+          <t>/news,002597,1253142510.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金禾实业11月25日被深股通减持3.26万股</t>
+          <t>金禾实业：融资净偿还1309.21万元，融资余额4.45亿元（11-29）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-26 07:44</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002597,1251432741.html</t>
+          <t>/news,002597,1252785494.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
+          <t>金禾实业11月29日获深股通增持27.64万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-25 08:43</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002597,1250949684.html</t>
+          <t>/news,002597,1252779415.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金禾实业11月24日获深股通增持32.16万股</t>
+          <t>金禾实业：融资净买入456.54万元，融资余额4.58亿元（11-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 07:49</t>
+          <t>11-29 08:41</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002597,1250943052.html</t>
+          <t>/news,002597,1252220911.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
+          <t>金禾实业11月28日获深股通增持10.22万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 08:52</t>
+          <t>11-29 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002597,1250429633.html</t>
+          <t>/news,002597,1252211984.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>金禾实业11月23日获深股通增持104.72万股</t>
+          <t>金禾实业：融资净买入81.21万元，融资余额4.53亿元（11-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 07:52</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002597,1250420690.html</t>
+          <t>/news,002597,1251733687.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
+          <t>金禾实业本周融资净偿还305.98万元，居食品饮料板块第十七</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-27 15:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002597,1249882859.html</t>
+          <t>/news,002597,1251590162.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>金禾实业11月22日被深股通减持3.54万股</t>
+          <t>金禾实业本周深股通持股市值增加5534.53万元，居食品饮料板块第三</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 07:48</t>
+          <t>11-27 14:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002597,1249875197.html</t>
+          <t>/news,002597,1251585069.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
+          <t>金禾实业11月25日被深股通减持3.26万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-26 07:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002597,1249355581.html</t>
+          <t>/news,002597,1251432741.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>金禾实业11月21日获深股通增持30.67万股</t>
+          <t>金禾实业：连续3日融资净偿还累计630.99万元（11-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-25 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002597,1249348857.html</t>
+          <t>/news,002597,1250949684.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
+          <t>金禾实业11月24日获深股通增持32.16万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 08:48</t>
+          <t>11-25 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002597,1248872075.html</t>
+          <t>/news,002597,1250943052.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
+          <t>金禾实业：融资净偿还18.68万元，融资余额4.56亿元（11-23）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-24 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002597,1248769996.html</t>
+          <t>/news,002597,1250429633.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
+          <t>金禾实业11月23日获深股通增持104.72万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-24 07:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002597,1248763189.html</t>
+          <t>/news,002597,1250420690.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>金禾实业11月18日被深股通减持27.75万股</t>
+          <t>金禾实业：融资净偿还240.35万元，融资余额4.56亿元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002597,1248639341.html</t>
+          <t>/news,002597,1249882859.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
+          <t>金禾实业11月22日被深股通减持3.54万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-23 07:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002597,1248161020.html</t>
+          <t>/news,002597,1249875197.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>金禾实业11月17日被深股通减持32.5万股</t>
+          <t>金禾实业：连续3日融资净买入累计1555.91万元（11-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 07:48</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002597,1248152828.html</t>
+          <t>/news,002597,1249355581.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
+          <t>金禾实业11月21日获深股通增持30.67万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-17 08:47</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002597,1247676205.html</t>
+          <t>/news,002597,1249348857.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金禾实业11月16日被深股通减持40.89万股</t>
+          <t>金禾实业：融资净买入395.37万元，融资余额4.56亿元（11-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 07:38</t>
+          <t>11-21 08:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002597,1247665696.html</t>
+          <t>/news,002597,1248872075.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
+          <t>融资融券周汇总：金禾实业本周融资净偿还52.59万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 08:46</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002597,1247183259.html</t>
+          <t>/news,002597,1248769996.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>金禾实业11月15日获深股通增持35.85万股</t>
+          <t>金禾实业本周深股通持股市值减少1772.27万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002597,1247175985.html</t>
+          <t>/news,002597,1248763189.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
+          <t>金禾实业11月18日被深股通减持27.75万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 08:47</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002597,1246697824.html</t>
+          <t>/news,002597,1248639341.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金禾实业11月14日获深股通增持16.29万股</t>
+          <t>金禾实业：融资净买入835.54万元，融资余额4.52亿元（11-17）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 07:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002597,1246689422.html</t>
+          <t>/news,002597,1248161020.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
+          <t>金禾实业11月17日被深股通减持32.5万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 08:50</t>
+          <t>11-18 07:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002597,1246196643.html</t>
+          <t>/news,002597,1248152828.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
+          <t>金禾实业：融资净偿还755.54万元，融资余额4.43亿元（11-16）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-17 08:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002597,1246099495.html</t>
+          <t>/news,002597,1247676205.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,61 +2611,61 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
+          <t>金禾实业11月16日被深股通减持40.89万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 14:05</t>
+          <t>11-17 07:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002597,1246093592.html</t>
+          <t>/news,002597,1247665696.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
+          <t>金禾实业：融资净偿还322.97万元，融资余额4.51亿元（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 18:44</t>
+          <t>11-16 08:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002597,1245901566.html</t>
+          <t>/news,002597,1247183259.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
+          <t>金禾实业11月15日获深股通增持35.85万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 08:43</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002597,1245422551.html</t>
+          <t>/news,002597,1247175985.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>金禾实业11月10日被深股通减持4.5万股</t>
+          <t>金禾实业：融资净买入190.37万元，融资余额4.54亿元（11-14）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 07:56</t>
+          <t>11-15 08:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002597,1245414105.html</t>
+          <t>/news,002597,1246697824.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
+          <t>金禾实业11月14日获深股通增持16.29万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 08:47</t>
+          <t>11-15 07:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002597,1244899410.html</t>
+          <t>/news,002597,1246689422.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>金禾实业11月09日获深股通增持13.7万股</t>
+          <t>金禾实业：融资净偿还1103.11万元，融资余额4.52亿元（11-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 07:42</t>
+          <t>11-14 08:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002597,1244889351.html</t>
+          <t>/news,002597,1246196643.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>金禾实业：连续3日融资净买入累计2415.32万元（11-08）</t>
+          <t>金禾实业本周融资净买入1989.35万元，居食品饮料板块第四</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002597,1244438542.html</t>
+          <t>/news,002597,1246099495.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,71 +2835,71 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>金禾实业11月08日被深股通减持134.89万股</t>
+          <t>金禾实业本周深股通持股市值减少5263.29万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-13 14:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002597,1244425337.html</t>
+          <t>/news,002597,1246093592.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入58.81万元，融资余额4.44亿元（11-07）</t>
+          <t>方正证券维持金禾实业强烈推荐评级 预计2022年净利润同比增长57.93%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>金禾实业资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-08 08:46</t>
+          <t>11-11 18:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002597,1243982611.html</t>
+          <t>/news,002597,1245901566.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>金禾实业11月07日被深股通减持26.53万股</t>
+          <t>金禾实业：连续5日融资净买入累计3040.39万元（11-10）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-11 08:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002597,1243974602.html</t>
+          <t>/news,002597,1245422551.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>金禾实业：融资净买入1051.05万元，融资余额4.43亿元（11-04）</t>
+          <t>金禾实业11月10日被深股通减持4.5万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-07 08:44</t>
+          <t>11-11 07:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002597,1243512702.html</t>
+          <t>/news,002597,1245414105.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>金禾实业本周融资净偿还1373.23万元，居食品饮料板块第十二</t>
+          <t>金禾实业：连续4日融资净买入累计2639.78万元（11-09）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-10 08:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002597,1243410339.html</t>
+          <t>/news,002597,1244899410.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>金禾实业本周深股通持股市值增加5763.4万元，居食品饮料板块第五</t>
+          <t>金禾实业11月09日获深股通增持13.7万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>金禾实业资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 14:07</t>
+          <t>11-10 07:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002597,1243405134.html</t>
+          <t>/news,002597,1244889351.html</t>
         </is>
       </c>
     </row>
